--- a/Resources_20190102.xlsx
+++ b/Resources_20190102.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EpiServer\Sites\tilsyn-automat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B585F-B06A-42A2-B4D2-1E958B30DC12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E067618-110D-4035-ADEF-66E01533B57C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>Group</t>
   </si>
@@ -296,12 +296,6 @@
   </si>
   <si>
     <t>Info</t>
-  </si>
-  <si>
-    <t>Case processor</t>
-  </si>
-  <si>
-    <t>Saksbehandler</t>
   </si>
   <si>
     <t>An error has occurred and logged. Contact your system administrator for more information.</t>
@@ -669,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -794,13 +788,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1659744004</v>
+        <v>2998202464</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -808,13 +802,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>2998202464</v>
+        <v>3705704106</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -825,10 +819,10 @@
         <v>3705704106</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -836,13 +830,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>3705704106</v>
+        <v>2279844992</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -853,10 +847,10 @@
         <v>2279844992</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -867,10 +861,10 @@
         <v>2279844992</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -881,10 +875,10 @@
         <v>2279844992</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -892,13 +886,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>2279844992</v>
+        <v>866065462</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -906,13 +900,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>866065462</v>
+        <v>3458240708</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -923,10 +917,10 @@
         <v>3458240708</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -934,13 +928,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>3458240708</v>
+        <v>3149282402</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -951,10 +945,10 @@
         <v>3149282402</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -965,10 +959,10 @@
         <v>3149282402</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -976,13 +970,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>3149282402</v>
+        <v>1136830207</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -993,10 +987,10 @@
         <v>1136830207</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1007,10 +1001,10 @@
         <v>1136830207</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -1021,10 +1015,10 @@
         <v>1136830207</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -1032,16 +1026,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>1136830207</v>
+        <v>522588630</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1049,21 +1040,24 @@
         <v>522588630</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>522588630</v>
+        <v>518086396</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1071,13 +1065,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>913219544</v>
+        <v>518086396</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1088,24 +1082,24 @@
         <v>518086396</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="14" customHeight="1">
       <c r="A31">
-        <v>518086396</v>
+        <v>3165212706</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -1113,27 +1107,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>518086396</v>
+        <v>3318381472</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14" customHeight="1">
+    <row r="33" spans="1:4">
       <c r="A33">
-        <v>3165212706</v>
+        <v>2008335646</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -1141,13 +1135,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>3318381472</v>
+        <v>913406770</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -1155,13 +1149,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>2008335646</v>
+        <v>3833993100</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -1169,13 +1163,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>913406770</v>
+        <v>2223844580</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -1183,13 +1177,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>3833993100</v>
+        <v>2223844580</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -1197,13 +1191,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>2223844580</v>
+        <v>1723642844</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -1211,27 +1205,24 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>2223844580</v>
+        <v>2987732778</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1723642844</v>
+        <v>2529184760</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -1239,24 +1230,27 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>2987732778</v>
+        <v>2624751246</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>2529184760</v>
+        <v>268173312</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -1264,13 +1258,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>2624751246</v>
+        <v>1460623748</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -1278,13 +1272,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>268173312</v>
+        <v>1460623748</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
@@ -1292,13 +1286,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>2163676120</v>
+        <v>1723642844</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -1306,13 +1300,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>3309824468</v>
+        <v>1723642844</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -1320,122 +1314,24 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>1460623748</v>
+        <v>3361336592</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>1460623748</v>
+        <v>3361336592</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>691887310</v>
-      </c>
-      <c r="B49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>691887310</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>1723642844</v>
-      </c>
-      <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>1723642844</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>3473529712</v>
-      </c>
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>3361336592</v>
-      </c>
-      <c r="B54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>3361336592</v>
-      </c>
-      <c r="B55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
